--- a/09-Excell/Zustand 1/W'keitsbaum - Z1.xlsx
+++ b/09-Excell/Zustand 1/W'keitsbaum - Z1.xlsx
@@ -121,9 +121,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="&quot;CHF&quot;\ #,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -562,7 +563,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -624,135 +625,137 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -798,63 +801,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4498982210.8414497</v>
+            <v>4499548788.7208471</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4500382179.6405449</v>
+            <v>4500948757.5199423</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4501139102.831955</v>
+            <v>4501705680.7113523</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4925315128.1502171</v>
+            <v>4925935488.0060873</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4926833460.7540722</v>
+            <v>4927453820.6099424</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4927650144.9225407</v>
+            <v>4928270504.77841</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5330647893.6873131</v>
+            <v>5331319385.8214912</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5332278758.619483</v>
+            <v>5332950250.7536612</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5333152259.4972763</v>
+            <v>5333823751.6314545</v>
           </cell>
         </row>
       </sheetData>
@@ -1294,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView tabSelected="1" topLeftCell="M25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1319,89 +1322,89 @@
   <sheetData>
     <row r="1" spans="2:28" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:28" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="41" t="s">
+      <c r="W3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="41" t="s">
+      <c r="X3" s="49"/>
+      <c r="Y3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="41" t="s">
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="42"/>
+      <c r="AB3" s="49"/>
     </row>
     <row r="4" spans="2:28" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="44"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="51"/>
     </row>
     <row r="5" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-      <c r="L5" s="65" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="L5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="Q5" s="41" t="s">
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="Q5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="42"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="46"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="49"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="53"/>
     </row>
     <row r="6" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="46"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="53"/>
     </row>
     <row r="7" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="33"/>
+      <c r="V7" s="56"/>
       <c r="W7" s="25" t="s">
         <v>6</v>
       </c>
@@ -1422,24 +1425,24 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="41"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="37"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="69"/>
     </row>
     <row r="9" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="30" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 2</v>
@@ -1474,14 +1477,14 @@
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="33"/>
+      <c r="V9" s="56"/>
       <c r="W9" s="27">
         <f>'[1]SB1-SU1'!$AD$56</f>
-        <v>4498982210.8414497</v>
-      </c>
-      <c r="X9" s="27">
+        <v>4499548788.7208471</v>
+      </c>
+      <c r="X9" s="74">
         <f>W9*S9</f>
-        <v>56237277.635518126</v>
+        <v>56244359.859010592</v>
       </c>
       <c r="Y9" s="27">
         <f>'[2]SB1-SU1'!$AD$56</f>
@@ -1501,61 +1504,61 @@
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="33"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="33"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="56"/>
     </row>
     <row r="12" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="17" t="s">
@@ -1575,14 +1578,14 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="33"/>
+      <c r="V12" s="56"/>
       <c r="W12" s="27">
         <f>'[1]SB1-SU2'!$AD$56</f>
-        <v>4500382179.6405449</v>
-      </c>
-      <c r="X12" s="27">
+        <v>4500948757.5199423</v>
+      </c>
+      <c r="X12" s="74">
         <f>W12*S12</f>
-        <v>646929938.32332826</v>
+        <v>647011383.89349163</v>
       </c>
       <c r="Y12" s="27">
         <f>'[2]SB1-SU2'!$AD$56</f>
@@ -1603,58 +1606,58 @@
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="33"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="56"/>
     </row>
     <row r="14" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="33"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="56"/>
     </row>
     <row r="15" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="17" t="s">
@@ -1674,14 +1677,14 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="33"/>
+      <c r="V15" s="56"/>
       <c r="W15" s="27">
         <f>'[1]SB1-SU3'!$AD$56</f>
-        <v>4501139102.831955</v>
-      </c>
-      <c r="X15" s="27">
+        <v>4501705680.7113523</v>
+      </c>
+      <c r="X15" s="74">
         <f>W15*S15</f>
-        <v>421981790.89049578</v>
+        <v>422034907.56668925</v>
       </c>
       <c r="Y15" s="27">
         <f>'[2]SB1-SU3'!$AD$56</f>
@@ -1702,51 +1705,51 @@
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="37"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="69"/>
     </row>
     <row r="17" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="33"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="56"/>
     </row>
     <row r="18" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="3"/>
@@ -1777,14 +1780,14 @@
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="33"/>
+      <c r="V18" s="56"/>
       <c r="W18" s="27">
         <f>'[1]SB2-SU1'!$AD$56</f>
-        <v>4925315128.1502171</v>
-      </c>
-      <c r="X18" s="27">
+        <v>4925935488.0060873</v>
+      </c>
+      <c r="X18" s="74">
         <f>W18*S18</f>
-        <v>123132878.20375544</v>
+        <v>123148387.20015219</v>
       </c>
       <c r="Y18" s="27">
         <f>'[2]SB2-SU1'!$AD$56</f>
@@ -1805,58 +1808,58 @@
     </row>
     <row r="19" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G19" s="3"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="37"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="69"/>
     </row>
     <row r="20" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="33"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="56"/>
     </row>
     <row r="21" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="17" t="s">
@@ -1876,14 +1879,14 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="33"/>
+      <c r="V21" s="56"/>
       <c r="W21" s="27">
         <f>'[1]SB2-SU2'!$AD$56</f>
-        <v>4926833460.7540722</v>
-      </c>
-      <c r="X21" s="27">
+        <v>4927453820.6099424</v>
+      </c>
+      <c r="X21" s="74">
         <f>W21*S21</f>
-        <v>1416464619.9667957</v>
+        <v>1416642973.4253583</v>
       </c>
       <c r="Y21" s="27">
         <f>'[2]SB2-SU2'!$AD$56</f>
@@ -1904,58 +1907,58 @@
     </row>
     <row r="22" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="37"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="69"/>
     </row>
     <row r="23" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="33"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="56"/>
     </row>
     <row r="24" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="16"/>
       <c r="M24" s="13"/>
       <c r="N24" s="17" t="s">
@@ -1975,14 +1978,14 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="33"/>
+      <c r="V24" s="56"/>
       <c r="W24" s="27">
         <f>'[1]SB2-SU3'!$AD$56</f>
-        <v>4927650144.9225407</v>
-      </c>
-      <c r="X24" s="27">
+        <v>4928270504.77841</v>
+      </c>
+      <c r="X24" s="74">
         <f>W24*S24</f>
-        <v>923934402.17297637</v>
+        <v>924050719.64595187</v>
       </c>
       <c r="Y24" s="27">
         <f>'[2]SB2-SU3'!$AD$56</f>
@@ -2003,51 +2006,51 @@
     </row>
     <row r="25" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G25" s="3"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="37"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="69"/>
     </row>
     <row r="26" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="33"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="56"/>
     </row>
     <row r="27" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="16"/>
@@ -2078,14 +2081,14 @@
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="33"/>
+      <c r="V27" s="56"/>
       <c r="W27" s="27">
         <f>'[1]SB3-SU1'!$AD$56</f>
-        <v>5330647893.6873131</v>
+        <v>5331319385.8214912</v>
       </c>
       <c r="X27" s="27">
         <f>W27*S27</f>
-        <v>66633098.671091415</v>
+        <v>66641492.322768643</v>
       </c>
       <c r="Y27" s="27">
         <f>'[2]SB3-SU1'!$AD$56</f>
@@ -2108,41 +2111,41 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="37"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="69"/>
     </row>
     <row r="29" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="33"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="56"/>
     </row>
     <row r="30" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="16"/>
@@ -2164,14 +2167,14 @@
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="33"/>
+      <c r="V30" s="56"/>
       <c r="W30" s="27">
         <f>'[1]SB3-SU2'!$AD$56</f>
-        <v>5332278758.619483</v>
+        <v>5332950250.7536612</v>
       </c>
       <c r="X30" s="27">
         <f>W30*S30</f>
-        <v>766515071.55155063</v>
+        <v>766611598.54583871</v>
       </c>
       <c r="Y30" s="27">
         <f>'[2]SB3-SU2'!$AD$56</f>
@@ -2192,41 +2195,41 @@
     </row>
     <row r="31" spans="7:28" x14ac:dyDescent="0.3">
       <c r="L31" s="3"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="37"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="69"/>
     </row>
     <row r="32" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="33"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="56"/>
     </row>
     <row r="33" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L33" s="16"/>
@@ -2248,14 +2251,14 @@
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="33"/>
+      <c r="V33" s="56"/>
       <c r="W33" s="27">
         <f>'[1]SB3-SU3'!$AD$56</f>
-        <v>5333152259.4972763</v>
+        <v>5333823751.6314545</v>
       </c>
       <c r="X33" s="27">
         <f>W33*S33</f>
-        <v>499983024.32786965</v>
+        <v>500045976.71544886</v>
       </c>
       <c r="Y33" s="27">
         <f>'[2]SB3-SU3'!$AD$56</f>
@@ -2275,11 +2278,11 @@
       </c>
     </row>
     <row r="34" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="34"/>
+      <c r="W34" s="72"/>
       <c r="X34" s="29"/>
-      <c r="Y34" s="34"/>
+      <c r="Y34" s="72"/>
       <c r="Z34" s="29"/>
-      <c r="AA34" s="34"/>
+      <c r="AA34" s="72"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="2"/>
     </row>
@@ -2288,21 +2291,21 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="31" t="s">
+      <c r="U35" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="32"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="28">
+      <c r="V35" s="71"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="75">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
-        <v>4921812101.7433815</v>
-      </c>
-      <c r="Y35" s="35"/>
+        <v>4922431799.1747093</v>
+      </c>
+      <c r="Y35" s="73"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
         <v>4628324680.3639584</v>
       </c>
-      <c r="AA35" s="35"/>
+      <c r="AA35" s="73"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
         <v>4628397589.6345997</v>
@@ -2585,6 +2588,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="V7:V33"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="W28:X29"/>
+    <mergeCell ref="Y28:Z29"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
     <mergeCell ref="B2:D5"/>
     <mergeCell ref="B8:C10"/>
     <mergeCell ref="M31:U32"/>
@@ -2601,40 +2638,6 @@
     <mergeCell ref="L5:N6"/>
     <mergeCell ref="G5:I6"/>
     <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="V7:V33"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="W28:X29"/>
-    <mergeCell ref="Y28:Z29"/>
-    <mergeCell ref="AA28:AB29"/>
-    <mergeCell ref="W31:X32"/>
-    <mergeCell ref="Y31:Z32"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="W25:X26"/>
-    <mergeCell ref="Y25:Z26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/09-Excell/Zustand 1/W'keitsbaum - Z1.xlsx
+++ b/09-Excell/Zustand 1/W'keitsbaum - Z1.xlsx
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -124,7 +124,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;CHF&quot;\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;CHF&quot;\ #,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -625,6 +625,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,8 +756,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -801,63 +801,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4499548788.7208471</v>
+            <v>662979883.16517639</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4500948757.5199423</v>
+            <v>663188493.62411797</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4501705680.7113523</v>
+            <v>663301283.34803188</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4925935488.0060873</v>
+            <v>725885047.29637909</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4927453820.6099424</v>
+            <v>726111295.23990023</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4928270504.77841</v>
+            <v>726232989.99448073</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5331319385.8214912</v>
+            <v>785693380.54541206</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5332950250.7536612</v>
+            <v>785936397.02078557</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5333823751.6314545</v>
+            <v>786066558.07846093</v>
           </cell>
         </row>
       </sheetData>
@@ -884,63 +884,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4232328054.4578934</v>
+            <v>628746043.99747086</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4232347264.4104891</v>
+            <v>628758039.74019599</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4232357650.6838312</v>
+            <v>628764525.49607098</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4633237364.7604055</v>
+            <v>688285487.15124309</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4633258198.8660526</v>
+            <v>688298497.10374391</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4633269405.1618118</v>
+            <v>688305494.92635453</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5014400049.5988054</v>
+            <v>744894466.43975997</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5014422427.8399496</v>
+            <v>744908440.63469195</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5014434413.7578697</v>
+            <v>744915925.29590571</v>
           </cell>
         </row>
       </sheetData>
@@ -967,63 +967,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4232311220.9318242</v>
+            <v>865141138.78902102</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4232327130.2652159</v>
+            <v>865150038.23673356</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4232335731.9879184</v>
+            <v>865154849.91422737</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4633296070.7680302</v>
+            <v>947145256.63668704</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4633313325.1952648</v>
+            <v>947154908.51015019</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4633322606.0455332</v>
+            <v>947160100.08163345</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5014607583.474411</v>
+            <v>1025155480.1100912</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5014626116.7262955</v>
+            <v>1025165847.3392847</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5014636043.2453146</v>
+            <v>1025171400.0883882</v>
           </cell>
         </row>
       </sheetData>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:AC61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1322,89 +1322,89 @@
   <sheetData>
     <row r="1" spans="2:28" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:28" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="48" t="s">
+      <c r="W3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="48" t="s">
+      <c r="X3" s="51"/>
+      <c r="Y3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="48" t="s">
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="49"/>
+      <c r="AB3" s="51"/>
     </row>
     <row r="4" spans="2:28" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="51"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="53"/>
     </row>
     <row r="5" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="L5" s="57" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="L5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="Q5" s="48" t="s">
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="Q5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="49"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="53"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="51"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="55"/>
     </row>
     <row r="6" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="53"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="55"/>
     </row>
     <row r="7" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="56"/>
+      <c r="V7" s="58"/>
       <c r="W7" s="25" t="s">
         <v>6</v>
       </c>
@@ -1425,24 +1425,24 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="43"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="69"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="71"/>
     </row>
     <row r="9" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="30" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 2</v>
@@ -1477,88 +1477,88 @@
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="56"/>
+      <c r="V9" s="58"/>
       <c r="W9" s="27">
         <f>'[1]SB1-SU1'!$AD$56</f>
-        <v>4499548788.7208471</v>
-      </c>
-      <c r="X9" s="74">
+        <v>662979883.16517639</v>
+      </c>
+      <c r="X9" s="31">
         <f>W9*S9</f>
-        <v>56244359.859010592</v>
+        <v>8287248.5395647055</v>
       </c>
       <c r="Y9" s="27">
         <f>'[2]SB1-SU1'!$AD$56</f>
-        <v>4232328054.4578934</v>
+        <v>628746043.99747086</v>
       </c>
       <c r="Z9" s="27">
         <f>Y9*S9</f>
-        <v>52904100.680723667</v>
+        <v>7859325.5499683861</v>
       </c>
       <c r="AA9" s="27">
         <f>'[3]SB1-SU1'!$AD$56</f>
-        <v>4232311220.9318242</v>
+        <v>865141138.78902102</v>
       </c>
       <c r="AB9" s="27">
         <f>AA9*S9</f>
-        <v>52903890.261647806</v>
+        <v>10814264.234862763</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="56"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="58"/>
     </row>
     <row r="11" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="56"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="58"/>
     </row>
     <row r="12" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="17" t="s">
@@ -1578,86 +1578,86 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="56"/>
+      <c r="V12" s="58"/>
       <c r="W12" s="27">
         <f>'[1]SB1-SU2'!$AD$56</f>
-        <v>4500948757.5199423</v>
-      </c>
-      <c r="X12" s="74">
+        <v>663188493.62411797</v>
+      </c>
+      <c r="X12" s="31">
         <f>W12*S12</f>
-        <v>647011383.89349163</v>
+        <v>95333345.958466947</v>
       </c>
       <c r="Y12" s="27">
         <f>'[2]SB1-SU2'!$AD$56</f>
-        <v>4232347264.4104891</v>
+        <v>628758039.74019599</v>
       </c>
       <c r="Z12" s="27">
         <f>Y12*S12</f>
-        <v>608399919.25900781</v>
+        <v>90383968.21265316</v>
       </c>
       <c r="AA12" s="27">
         <f>'[3]SB1-SU2'!$AD$56</f>
-        <v>4232327130.2652159</v>
+        <v>865150038.23673356</v>
       </c>
       <c r="AB12" s="27">
         <f>AA12*S12</f>
-        <v>608397024.97562468</v>
+        <v>124365317.99653044</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="56"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="58"/>
     </row>
     <row r="14" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="56"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="58"/>
     </row>
     <row r="15" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="17" t="s">
@@ -1677,79 +1677,79 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="56"/>
+      <c r="V15" s="58"/>
       <c r="W15" s="27">
         <f>'[1]SB1-SU3'!$AD$56</f>
-        <v>4501705680.7113523</v>
-      </c>
-      <c r="X15" s="74">
+        <v>663301283.34803188</v>
+      </c>
+      <c r="X15" s="31">
         <f>W15*S15</f>
-        <v>422034907.56668925</v>
+        <v>62184495.313877985</v>
       </c>
       <c r="Y15" s="27">
         <f>'[2]SB1-SU3'!$AD$56</f>
-        <v>4232357650.6838312</v>
+        <v>628764525.49607098</v>
       </c>
       <c r="Z15" s="27">
         <f>Y15*S15</f>
-        <v>396783529.75160921</v>
+        <v>58946674.265256658</v>
       </c>
       <c r="AA15" s="27">
         <f>'[3]SB1-SU3'!$AD$56</f>
-        <v>4232335731.9879184</v>
+        <v>865154849.91422737</v>
       </c>
       <c r="AB15" s="27">
         <f>AA15*S15</f>
-        <v>396781474.87386733</v>
+        <v>81108267.179458812</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="69"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="71"/>
     </row>
     <row r="17" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="56"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="58"/>
     </row>
     <row r="18" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="3"/>
@@ -1780,86 +1780,86 @@
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="56"/>
+      <c r="V18" s="58"/>
       <c r="W18" s="27">
         <f>'[1]SB2-SU1'!$AD$56</f>
-        <v>4925935488.0060873</v>
-      </c>
-      <c r="X18" s="74">
+        <v>725885047.29637909</v>
+      </c>
+      <c r="X18" s="31">
         <f>W18*S18</f>
-        <v>123148387.20015219</v>
+        <v>18147126.182409476</v>
       </c>
       <c r="Y18" s="27">
         <f>'[2]SB2-SU1'!$AD$56</f>
-        <v>4633237364.7604055</v>
+        <v>688285487.15124309</v>
       </c>
       <c r="Z18" s="27">
         <f>Y18*S18</f>
-        <v>115830934.11901015</v>
+        <v>17207137.178781077</v>
       </c>
       <c r="AA18" s="27">
         <f>'[3]SB2-SU1'!$AD$56</f>
-        <v>4633296070.7680302</v>
+        <v>947145256.63668704</v>
       </c>
       <c r="AB18" s="27">
         <f>AA18*S18</f>
-        <v>115832401.76920076</v>
+        <v>23678631.415917177</v>
       </c>
     </row>
     <row r="19" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G19" s="3"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="69"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="71"/>
     </row>
     <row r="20" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="56"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="58"/>
     </row>
     <row r="21" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="17" t="s">
@@ -1879,86 +1879,86 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="56"/>
+      <c r="V21" s="58"/>
       <c r="W21" s="27">
         <f>'[1]SB2-SU2'!$AD$56</f>
-        <v>4927453820.6099424</v>
-      </c>
-      <c r="X21" s="74">
+        <v>726111295.23990023</v>
+      </c>
+      <c r="X21" s="31">
         <f>W21*S21</f>
-        <v>1416642973.4253583</v>
+        <v>208756997.38147131</v>
       </c>
       <c r="Y21" s="27">
         <f>'[2]SB2-SU2'!$AD$56</f>
-        <v>4633258198.8660526</v>
+        <v>688298497.10374391</v>
       </c>
       <c r="Z21" s="27">
         <f>Y21*S21</f>
-        <v>1332061732.17399</v>
+        <v>197885817.91732636</v>
       </c>
       <c r="AA21" s="27">
         <f>'[3]SB2-SU2'!$AD$56</f>
-        <v>4633313325.1952648</v>
+        <v>947154908.51015019</v>
       </c>
       <c r="AB21" s="27">
         <f>AA21*S21</f>
-        <v>1332077580.9936385</v>
+        <v>272307036.19666815</v>
       </c>
     </row>
     <row r="22" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="69"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="71"/>
     </row>
     <row r="23" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="56"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="58"/>
     </row>
     <row r="24" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
       <c r="L24" s="16"/>
       <c r="M24" s="13"/>
       <c r="N24" s="17" t="s">
@@ -1978,79 +1978,79 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="56"/>
+      <c r="V24" s="58"/>
       <c r="W24" s="27">
         <f>'[1]SB2-SU3'!$AD$56</f>
-        <v>4928270504.77841</v>
-      </c>
-      <c r="X24" s="74">
+        <v>726232989.99448073</v>
+      </c>
+      <c r="X24" s="31">
         <f>W24*S24</f>
-        <v>924050719.64595187</v>
+        <v>136168685.62396514</v>
       </c>
       <c r="Y24" s="27">
         <f>'[2]SB2-SU3'!$AD$56</f>
-        <v>4633269405.1618118</v>
+        <v>688305494.92635453</v>
       </c>
       <c r="Z24" s="27">
         <f>Y24*S24</f>
-        <v>868738013.46783972</v>
+        <v>129057280.29869148</v>
       </c>
       <c r="AA24" s="27">
         <f>'[3]SB2-SU3'!$AD$56</f>
-        <v>4633322606.0455332</v>
+        <v>947160100.08163345</v>
       </c>
       <c r="AB24" s="27">
         <f>AA24*S24</f>
-        <v>868747988.63353753</v>
+        <v>177592518.76530626</v>
       </c>
     </row>
     <row r="25" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G25" s="3"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="69"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="71"/>
     </row>
     <row r="26" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="56"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="58"/>
     </row>
     <row r="27" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="16"/>
@@ -2081,71 +2081,71 @@
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="56"/>
+      <c r="V27" s="58"/>
       <c r="W27" s="27">
         <f>'[1]SB3-SU1'!$AD$56</f>
-        <v>5331319385.8214912</v>
+        <v>785693380.54541206</v>
       </c>
       <c r="X27" s="27">
         <f>W27*S27</f>
-        <v>66641492.322768643</v>
+        <v>9821167.2568176519</v>
       </c>
       <c r="Y27" s="27">
         <f>'[2]SB3-SU1'!$AD$56</f>
-        <v>5014400049.5988054</v>
+        <v>744894466.43975997</v>
       </c>
       <c r="Z27" s="27">
         <f>Y27*S27</f>
-        <v>62680000.619985074</v>
+        <v>9311180.8304970004</v>
       </c>
       <c r="AA27" s="27">
         <f>'[3]SB3-SU1'!$AD$56</f>
-        <v>5014607583.474411</v>
+        <v>1025155480.1100912</v>
       </c>
       <c r="AB27" s="27">
         <f>AA27*S27</f>
-        <v>62682594.793430142</v>
+        <v>12814443.501376141</v>
       </c>
     </row>
     <row r="28" spans="7:28" x14ac:dyDescent="0.3">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="69"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="71"/>
     </row>
     <row r="29" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="56"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="58"/>
     </row>
     <row r="30" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="16"/>
@@ -2167,69 +2167,69 @@
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="56"/>
+      <c r="V30" s="58"/>
       <c r="W30" s="27">
         <f>'[1]SB3-SU2'!$AD$56</f>
-        <v>5332950250.7536612</v>
+        <v>785936397.02078557</v>
       </c>
       <c r="X30" s="27">
         <f>W30*S30</f>
-        <v>766611598.54583871</v>
+        <v>112978357.07173792</v>
       </c>
       <c r="Y30" s="27">
         <f>'[2]SB3-SU2'!$AD$56</f>
-        <v>5014422427.8399496</v>
+        <v>744908440.63469195</v>
       </c>
       <c r="Z30" s="27">
         <f>Y30*S30</f>
-        <v>720823224.0019927</v>
+        <v>107080588.34123696</v>
       </c>
       <c r="AA30" s="27">
         <f>'[3]SB3-SU2'!$AD$56</f>
-        <v>5014626116.7262955</v>
+        <v>1025165847.3392847</v>
       </c>
       <c r="AB30" s="27">
         <f>AA30*S30</f>
-        <v>720852504.27940488</v>
+        <v>147367590.55502215</v>
       </c>
     </row>
     <row r="31" spans="7:28" x14ac:dyDescent="0.3">
       <c r="L31" s="3"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="69"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="71"/>
     </row>
     <row r="32" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="56"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="58"/>
     </row>
     <row r="33" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L33" s="16"/>
@@ -2251,38 +2251,38 @@
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="56"/>
+      <c r="V33" s="58"/>
       <c r="W33" s="27">
         <f>'[1]SB3-SU3'!$AD$56</f>
-        <v>5333823751.6314545</v>
+        <v>786066558.07846093</v>
       </c>
       <c r="X33" s="27">
         <f>W33*S33</f>
-        <v>500045976.71544886</v>
+        <v>73693739.81985572</v>
       </c>
       <c r="Y33" s="27">
         <f>'[2]SB3-SU3'!$AD$56</f>
-        <v>5014434413.7578697</v>
+        <v>744915925.29590571</v>
       </c>
       <c r="Z33" s="27">
         <f>Y33*S33</f>
-        <v>470103226.28980029</v>
+        <v>69835867.996491164</v>
       </c>
       <c r="AA33" s="27">
         <f>'[3]SB3-SU3'!$AD$56</f>
-        <v>5014636043.2453146</v>
+        <v>1025171400.0883882</v>
       </c>
       <c r="AB33" s="27">
         <f>AA33*S33</f>
-        <v>470122129.05424821</v>
+        <v>96109818.758286387</v>
       </c>
     </row>
     <row r="34" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="72"/>
+      <c r="W34" s="74"/>
       <c r="X34" s="29"/>
-      <c r="Y34" s="72"/>
+      <c r="Y34" s="74"/>
       <c r="Z34" s="29"/>
-      <c r="AA34" s="72"/>
+      <c r="AA34" s="74"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="2"/>
     </row>
@@ -2291,24 +2291,24 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="70" t="s">
+      <c r="U35" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="71"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="75">
+      <c r="V35" s="73"/>
+      <c r="W35" s="75"/>
+      <c r="X35" s="32">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
-        <v>4922431799.1747093</v>
-      </c>
-      <c r="Y35" s="73"/>
+        <v>725371163.14816678</v>
+      </c>
+      <c r="Y35" s="75"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
-        <v>4628324680.3639584</v>
-      </c>
-      <c r="AA35" s="73"/>
+        <v>687567840.59090233</v>
+      </c>
+      <c r="AA35" s="75"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
-        <v>4628397589.6345997</v>
+        <v>946157888.60342824</v>
       </c>
       <c r="AC35" s="2"/>
     </row>

--- a/09-Excell/Zustand 1/W'keitsbaum - Z1.xlsx
+++ b/09-Excell/Zustand 1/W'keitsbaum - Z1.xlsx
@@ -800,64 +800,91 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="56">
+          <cell r="AA56">
+            <v>688285.48377404804</v>
+          </cell>
           <cell r="AD56">
-            <v>662979883.16517639</v>
+            <v>657265852.04055798</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
+          <cell r="AA56">
+            <v>688285.48377404804</v>
+          </cell>
           <cell r="AD56">
-            <v>663188493.62411797</v>
+            <v>657532741.58820236</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
+          <cell r="AA56">
+            <v>688285.48377404804</v>
+          </cell>
           <cell r="AD56">
-            <v>663301283.34803188</v>
+            <v>657799631.13587451</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
+          <cell r="AA56">
+            <v>748204.16237870418</v>
+          </cell>
           <cell r="AD56">
-            <v>725885047.29637909</v>
+            <v>721015738.4551686</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
+          <cell r="AA56">
+            <v>748204.16237870418</v>
+          </cell>
           <cell r="AD56">
-            <v>726111295.23990023</v>
+            <v>721282628.00337207</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
+          <cell r="AA56">
+            <v>748204.16237870418</v>
+          </cell>
           <cell r="AD56">
-            <v>726232989.99448073</v>
+            <v>721549517.55161297</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
+          <cell r="AA56">
+            <v>808122.84098336031</v>
+          </cell>
           <cell r="AD56">
-            <v>785693380.54541206</v>
+            <v>784768197.32723331</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
+          <cell r="AA56">
+            <v>808122.84098336031</v>
+          </cell>
           <cell r="AD56">
-            <v>785936397.02078557</v>
+            <v>785035086.87623382</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
+          <cell r="AA56">
+            <v>808122.84098336031</v>
+          </cell>
           <cell r="AD56">
-            <v>786066558.07846093</v>
+            <v>785301976.42528415</v>
           </cell>
         </row>
       </sheetData>
@@ -883,64 +910,91 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="56">
+          <cell r="AA56">
+            <v>688285.48377404804</v>
+          </cell>
           <cell r="AD56">
-            <v>628746043.99747086</v>
+            <v>623255419.40966082</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
+          <cell r="AA56">
+            <v>688285.48377404804</v>
+          </cell>
           <cell r="AD56">
-            <v>628758039.74019599</v>
+            <v>623270267.55072773</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
+          <cell r="AA56">
+            <v>688285.48377404804</v>
+          </cell>
           <cell r="AD56">
-            <v>628764525.49607098</v>
+            <v>623285115.69180787</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
+          <cell r="AA56">
+            <v>748204.16237870418</v>
+          </cell>
           <cell r="AD56">
-            <v>688285487.15124309</v>
+            <v>683603703.52662277</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
+          <cell r="AA56">
+            <v>748204.16237870418</v>
+          </cell>
           <cell r="AD56">
-            <v>688298497.10374391</v>
+            <v>683618551.66795206</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
+          <cell r="AA56">
+            <v>748204.16237870418</v>
+          </cell>
           <cell r="AD56">
-            <v>688305494.92635453</v>
+            <v>683633399.80929923</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
+          <cell r="AA56">
+            <v>808122.84098336031</v>
+          </cell>
           <cell r="AD56">
-            <v>744894466.43975997</v>
+            <v>743955160.3297857</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
+          <cell r="AA56">
+            <v>808122.84098336031</v>
+          </cell>
           <cell r="AD56">
-            <v>744908440.63469195</v>
+            <v>743970008.47148883</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
+          <cell r="AA56">
+            <v>808122.84098336031</v>
+          </cell>
           <cell r="AD56">
-            <v>744915925.29590571</v>
+            <v>743984856.6132158</v>
           </cell>
         </row>
       </sheetData>
@@ -966,64 +1020,91 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="56">
+          <cell r="AA56">
+            <v>688285.48377404804</v>
+          </cell>
           <cell r="AD56">
-            <v>865141138.78902102</v>
+            <v>858087479.0080452</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
+          <cell r="AA56">
+            <v>688285.48377404804</v>
+          </cell>
           <cell r="AD56">
-            <v>865150038.23673356</v>
+            <v>858098357.99275506</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
+          <cell r="AA56">
+            <v>688285.48377404804</v>
+          </cell>
           <cell r="AD56">
-            <v>865154849.91422737</v>
+            <v>858109236.97746909</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
+          <cell r="AA56">
+            <v>748204.16237870418</v>
+          </cell>
           <cell r="AD56">
-            <v>947145256.63668704</v>
+            <v>941253247.92043126</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
+          <cell r="AA56">
+            <v>748204.16237870418</v>
+          </cell>
           <cell r="AD56">
-            <v>947154908.51015019</v>
+            <v>941264126.90521979</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
+          <cell r="AA56">
+            <v>748204.16237870418</v>
+          </cell>
           <cell r="AD56">
-            <v>947160100.08163345</v>
+            <v>941275005.89001369</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
+          <cell r="AA56">
+            <v>808122.84098336031</v>
+          </cell>
           <cell r="AD56">
-            <v>1025155480.1100912</v>
+            <v>1024469779.7028751</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
+          <cell r="AA56">
+            <v>808122.84098336031</v>
+          </cell>
           <cell r="AD56">
-            <v>1025165847.3392847</v>
+            <v>1024480658.6877757</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
+          <cell r="AA56">
+            <v>808122.84098336031</v>
+          </cell>
           <cell r="AD56">
-            <v>1025171400.0883882</v>
+            <v>1024491537.6726837</v>
           </cell>
         </row>
       </sheetData>
@@ -1297,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView tabSelected="1" topLeftCell="M16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1480,27 +1561,27 @@
       <c r="V9" s="58"/>
       <c r="W9" s="27">
         <f>'[1]SB1-SU1'!$AD$56</f>
-        <v>662979883.16517639</v>
+        <v>657265852.04055798</v>
       </c>
       <c r="X9" s="31">
         <f>W9*S9</f>
-        <v>8287248.5395647055</v>
+        <v>8215823.1505069751</v>
       </c>
       <c r="Y9" s="27">
         <f>'[2]SB1-SU1'!$AD$56</f>
-        <v>628746043.99747086</v>
+        <v>623255419.40966082</v>
       </c>
       <c r="Z9" s="27">
         <f>Y9*S9</f>
-        <v>7859325.5499683861</v>
+        <v>7790692.7426207606</v>
       </c>
       <c r="AA9" s="27">
         <f>'[3]SB1-SU1'!$AD$56</f>
-        <v>865141138.78902102</v>
+        <v>858087479.0080452</v>
       </c>
       <c r="AB9" s="27">
         <f>AA9*S9</f>
-        <v>10814264.234862763</v>
+        <v>10726093.487600565</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1581,27 +1662,27 @@
       <c r="V12" s="58"/>
       <c r="W12" s="27">
         <f>'[1]SB1-SU2'!$AD$56</f>
-        <v>663188493.62411797</v>
+        <v>657532741.58820236</v>
       </c>
       <c r="X12" s="31">
         <f>W12*S12</f>
-        <v>95333345.958466947</v>
+        <v>94520331.603304088</v>
       </c>
       <c r="Y12" s="27">
         <f>'[2]SB1-SU2'!$AD$56</f>
-        <v>628758039.74019599</v>
+        <v>623270267.55072773</v>
       </c>
       <c r="Z12" s="27">
         <f>Y12*S12</f>
-        <v>90383968.21265316</v>
+        <v>89595100.960417107</v>
       </c>
       <c r="AA12" s="27">
         <f>'[3]SB1-SU2'!$AD$56</f>
-        <v>865150038.23673356</v>
+        <v>858098357.99275506</v>
       </c>
       <c r="AB12" s="27">
         <f>AA12*S12</f>
-        <v>124365317.99653044</v>
+        <v>123351638.96145853</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
@@ -1680,27 +1761,27 @@
       <c r="V15" s="58"/>
       <c r="W15" s="27">
         <f>'[1]SB1-SU3'!$AD$56</f>
-        <v>663301283.34803188</v>
+        <v>657799631.13587451</v>
       </c>
       <c r="X15" s="31">
         <f>W15*S15</f>
-        <v>62184495.313877985</v>
+        <v>61668715.418988235</v>
       </c>
       <c r="Y15" s="27">
         <f>'[2]SB1-SU3'!$AD$56</f>
-        <v>628764525.49607098</v>
+        <v>623285115.69180787</v>
       </c>
       <c r="Z15" s="27">
         <f>Y15*S15</f>
-        <v>58946674.265256658</v>
+        <v>58432979.596106991</v>
       </c>
       <c r="AA15" s="27">
         <f>'[3]SB1-SU3'!$AD$56</f>
-        <v>865154849.91422737</v>
+        <v>858109236.97746909</v>
       </c>
       <c r="AB15" s="27">
         <f>AA15*S15</f>
-        <v>81108267.179458812</v>
+        <v>80447740.966637731</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.3">
@@ -1783,27 +1864,27 @@
       <c r="V18" s="58"/>
       <c r="W18" s="27">
         <f>'[1]SB2-SU1'!$AD$56</f>
-        <v>725885047.29637909</v>
+        <v>721015738.4551686</v>
       </c>
       <c r="X18" s="31">
         <f>W18*S18</f>
-        <v>18147126.182409476</v>
+        <v>18025393.461379215</v>
       </c>
       <c r="Y18" s="27">
         <f>'[2]SB2-SU1'!$AD$56</f>
-        <v>688285487.15124309</v>
+        <v>683603703.52662277</v>
       </c>
       <c r="Z18" s="27">
         <f>Y18*S18</f>
-        <v>17207137.178781077</v>
+        <v>17090092.58816557</v>
       </c>
       <c r="AA18" s="27">
         <f>'[3]SB2-SU1'!$AD$56</f>
-        <v>947145256.63668704</v>
+        <v>941253247.92043126</v>
       </c>
       <c r="AB18" s="27">
         <f>AA18*S18</f>
-        <v>23678631.415917177</v>
+        <v>23531331.198010784</v>
       </c>
     </row>
     <row r="19" spans="7:28" x14ac:dyDescent="0.3">
@@ -1882,27 +1963,27 @@
       <c r="V21" s="58"/>
       <c r="W21" s="27">
         <f>'[1]SB2-SU2'!$AD$56</f>
-        <v>726111295.23990023</v>
+        <v>721282628.00337207</v>
       </c>
       <c r="X21" s="31">
         <f>W21*S21</f>
-        <v>208756997.38147131</v>
+        <v>207368755.55096945</v>
       </c>
       <c r="Y21" s="27">
         <f>'[2]SB2-SU2'!$AD$56</f>
-        <v>688298497.10374391</v>
+        <v>683618551.66795206</v>
       </c>
       <c r="Z21" s="27">
         <f>Y21*S21</f>
-        <v>197885817.91732636</v>
+        <v>196540333.60453621</v>
       </c>
       <c r="AA21" s="27">
         <f>'[3]SB2-SU2'!$AD$56</f>
-        <v>947154908.51015019</v>
+        <v>941264126.90521979</v>
       </c>
       <c r="AB21" s="27">
         <f>AA21*S21</f>
-        <v>272307036.19666815</v>
+        <v>270613436.48525065</v>
       </c>
     </row>
     <row r="22" spans="7:28" x14ac:dyDescent="0.3">
@@ -1981,27 +2062,27 @@
       <c r="V24" s="58"/>
       <c r="W24" s="27">
         <f>'[1]SB2-SU3'!$AD$56</f>
-        <v>726232989.99448073</v>
+        <v>721549517.55161297</v>
       </c>
       <c r="X24" s="31">
         <f>W24*S24</f>
-        <v>136168685.62396514</v>
+        <v>135290534.54092744</v>
       </c>
       <c r="Y24" s="27">
         <f>'[2]SB2-SU3'!$AD$56</f>
-        <v>688305494.92635453</v>
+        <v>683633399.80929923</v>
       </c>
       <c r="Z24" s="27">
         <f>Y24*S24</f>
-        <v>129057280.29869148</v>
+        <v>128181262.46424361</v>
       </c>
       <c r="AA24" s="27">
         <f>'[3]SB2-SU3'!$AD$56</f>
-        <v>947160100.08163345</v>
+        <v>941275005.89001369</v>
       </c>
       <c r="AB24" s="27">
         <f>AA24*S24</f>
-        <v>177592518.76530626</v>
+        <v>176489063.60437757</v>
       </c>
     </row>
     <row r="25" spans="7:28" x14ac:dyDescent="0.3">
@@ -2084,27 +2165,27 @@
       <c r="V27" s="58"/>
       <c r="W27" s="27">
         <f>'[1]SB3-SU1'!$AD$56</f>
-        <v>785693380.54541206</v>
+        <v>784768197.32723331</v>
       </c>
       <c r="X27" s="27">
         <f>W27*S27</f>
-        <v>9821167.2568176519</v>
+        <v>9809602.4665904175</v>
       </c>
       <c r="Y27" s="27">
         <f>'[2]SB3-SU1'!$AD$56</f>
-        <v>744894466.43975997</v>
+        <v>743955160.3297857</v>
       </c>
       <c r="Z27" s="27">
         <f>Y27*S27</f>
-        <v>9311180.8304970004</v>
+        <v>9299439.5041223224</v>
       </c>
       <c r="AA27" s="27">
         <f>'[3]SB3-SU1'!$AD$56</f>
-        <v>1025155480.1100912</v>
+        <v>1024469779.7028751</v>
       </c>
       <c r="AB27" s="27">
         <f>AA27*S27</f>
-        <v>12814443.501376141</v>
+        <v>12805872.24628594</v>
       </c>
     </row>
     <row r="28" spans="7:28" x14ac:dyDescent="0.3">
@@ -2170,27 +2251,27 @@
       <c r="V30" s="58"/>
       <c r="W30" s="27">
         <f>'[1]SB3-SU2'!$AD$56</f>
-        <v>785936397.02078557</v>
+        <v>785035086.87623382</v>
       </c>
       <c r="X30" s="27">
         <f>W30*S30</f>
-        <v>112978357.07173792</v>
+        <v>112848793.7384586</v>
       </c>
       <c r="Y30" s="27">
         <f>'[2]SB3-SU2'!$AD$56</f>
-        <v>744908440.63469195</v>
+        <v>743970008.47148883</v>
       </c>
       <c r="Z30" s="27">
         <f>Y30*S30</f>
-        <v>107080588.34123696</v>
+        <v>106945688.71777651</v>
       </c>
       <c r="AA30" s="27">
         <f>'[3]SB3-SU2'!$AD$56</f>
-        <v>1025165847.3392847</v>
+        <v>1024480658.6877757</v>
       </c>
       <c r="AB30" s="27">
         <f>AA30*S30</f>
-        <v>147367590.55502215</v>
+        <v>147269094.68636775</v>
       </c>
     </row>
     <row r="31" spans="7:28" x14ac:dyDescent="0.3">
@@ -2254,27 +2335,27 @@
       <c r="V33" s="58"/>
       <c r="W33" s="27">
         <f>'[1]SB3-SU3'!$AD$56</f>
-        <v>786066558.07846093</v>
+        <v>785301976.42528415</v>
       </c>
       <c r="X33" s="27">
         <f>W33*S33</f>
-        <v>73693739.81985572</v>
+        <v>73622060.289870381</v>
       </c>
       <c r="Y33" s="27">
         <f>'[2]SB3-SU3'!$AD$56</f>
-        <v>744915925.29590571</v>
+        <v>743984856.6132158</v>
       </c>
       <c r="Z33" s="27">
         <f>Y33*S33</f>
-        <v>69835867.996491164</v>
+        <v>69748580.307488978</v>
       </c>
       <c r="AA33" s="27">
         <f>'[3]SB3-SU3'!$AD$56</f>
-        <v>1025171400.0883882</v>
+        <v>1024491537.6726837</v>
       </c>
       <c r="AB33" s="27">
         <f>AA33*S33</f>
-        <v>96109818.758286387</v>
+        <v>96046081.656814098</v>
       </c>
     </row>
     <row r="34" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2298,17 +2379,17 @@
       <c r="W35" s="75"/>
       <c r="X35" s="32">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
-        <v>725371163.14816678</v>
+        <v>721370010.22099483</v>
       </c>
       <c r="Y35" s="75"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
-        <v>687567840.59090233</v>
+        <v>683624170.48547816</v>
       </c>
       <c r="AA35" s="75"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
-        <v>946157888.60342824</v>
+        <v>941280353.29280353</v>
       </c>
       <c r="AC35" s="2"/>
     </row>
